--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20 ANÁLISIS HORIZONTAL DE BALANCE GENERAL.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20 ANÁLISIS HORIZONTAL DE BALANCE GENERAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B781A7C-5ACD-4B97-A032-688527A6032D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A7BE9-DCE4-4023-AC9C-D11ACB6707A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,12 +191,6 @@
     <t xml:space="preserve">situación financiera de la empresa a lo largo del tiempo. Esta información es esencial para evaluar el rendimiento pasado, </t>
   </si>
   <si>
-    <t xml:space="preserve">                                             Auditoría de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>(Variación/ valor año anterior)</t>
   </si>
   <si>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>PASIVO Y PATRIMONIO</t>
+  </si>
+  <si>
+    <t>Auditoría de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1445,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,10 +1461,10 @@
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1506,7 @@
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
@@ -1520,25 +1517,25 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="C9" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="C9" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
-      <c r="C10" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="L10" s="38"/>
@@ -1546,7 +1543,7 @@
     <row r="11" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
@@ -1571,7 +1568,7 @@
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="77"/>
       <c r="D13" s="77"/>
@@ -1595,7 +1592,7 @@
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
@@ -1703,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="57" t="s">
         <v>19</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="37" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B37" s="79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="83"/>
       <c r="D37" s="83"/>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="44" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="81"/>
